--- a/advantage/PHPExcel/bulk_site_excel (2).xlsx
+++ b/advantage/PHPExcel/bulk_site_excel (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t xml:space="preserve"> activity </t>
   </si>
@@ -135,76 +135,97 @@
     <t>Vendor Managed</t>
   </si>
   <si>
+    <t>TATA -Nelco</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>5 Days</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>PO Date</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude </t>
+  </si>
+  <si>
+    <t>Gwalior</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>BHOPAL</t>
+  </si>
+  <si>
+    <t>Anmol Sharma</t>
+  </si>
+  <si>
+    <t>anmol.sharma2@sbi.co.in</t>
+  </si>
+  <si>
+    <t>Rahul Sharma</t>
+  </si>
+  <si>
+    <t>lhobhopal@advantagesb.com</t>
+  </si>
+  <si>
+    <t>writers</t>
+  </si>
+  <si>
+    <t>OFFSITE</t>
+  </si>
+  <si>
+    <t>TATANET-VSAT</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>SELFSERVE 22E</t>
+  </si>
+  <si>
     <t>URBAN</t>
   </si>
   <si>
-    <t>TATA -Nelco</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>5 Days</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>PO Date</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude </t>
-  </si>
-  <si>
-    <t>S10A000355003</t>
-  </si>
-  <si>
-    <t>Gwalior</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH</t>
-  </si>
-  <si>
-    <t>BHOPAL</t>
-  </si>
-  <si>
-    <t>Anmol Sharma</t>
-  </si>
-  <si>
-    <t>anmol.sharma2@sbi.co.in</t>
-  </si>
-  <si>
-    <t>Rahul Sharma</t>
-  </si>
-  <si>
-    <t>lhobhopal@advantagesb.com</t>
-  </si>
-  <si>
-    <t>writers</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>SELFSERVE 22E</t>
-  </si>
-  <si>
-    <t>OFFSITE</t>
-  </si>
-  <si>
-    <t>172.36.75.170</t>
-  </si>
-  <si>
-    <t>TATANET-VSAT</t>
-  </si>
-  <si>
-    <t>NEW COLLECTORATE,DAMOH,MADHYA PRADESH 470661</t>
+    <t>S1BW000355041</t>
+  </si>
+  <si>
+    <t>HYOSUNG</t>
+  </si>
+  <si>
+    <t>MX 5600S</t>
+  </si>
+  <si>
+    <t>172.36.75.146</t>
+  </si>
+  <si>
+    <t>MYCEM CEMENT NARSINGHGARH,DAMOH,MADHYA PRADESH 470675</t>
+  </si>
+  <si>
+    <t>S10A000355006</t>
+  </si>
+  <si>
+    <t>172.38.36.51</t>
+  </si>
+  <si>
+    <t>HUG-VSAT</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>SANMATI PALACE DAMOH,DAMOH,MADHYA PRADESH 470661</t>
   </si>
 </sst>
 </file>
@@ -260,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,17 +304,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -308,21 +318,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -639,6 +649,8 @@
     <col min="31" max="31" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -742,16 +754,16 @@
         <v>14</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -764,8 +776,8 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -773,53 +785,53 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="M2" s="7">
+        <v>7987929715</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="13">
+        <v>9399416131</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="13">
+        <v>9399416131</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8">
-        <v>7987929715</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="11">
-        <v>9399416131</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="11">
-        <v>9399416131</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>36</v>
@@ -828,43 +840,156 @@
         <v>37</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="AG2" s="2">
         <v>44936</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AI2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="13">
-        <v>23.816672000000001</v>
-      </c>
-      <c r="AK2" s="13">
-        <v>79.448603000000006</v>
+      <c r="AJ2" s="9">
+        <v>23.991012999999999</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>79.398114000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7">
+        <v>7987929715</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="13">
+        <v>9399416131</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="13">
+        <v>9399416131</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>44936</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>23.817874</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>79.446898000000004</v>
       </c>
     </row>
   </sheetData>
